--- a/strategies/xiQuant_strategies/results_BASELINE_OCT27-MORNING.xlsx
+++ b/strategies/xiQuant_strategies/results_BASELINE_OCT27-MORNING.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
@@ -80,7 +81,7 @@
     <t>['PCLN'</t>
   </si>
   <si>
-    <t> 'AMZN']</t>
+    <t>'AMZN']</t>
   </si>
   <si>
     <t>2008-03-12</t>
@@ -125,7 +126,7 @@
     <t>['AMZN'</t>
   </si>
   <si>
-    <t> 'CRM']</t>
+    <t>'CRM']</t>
   </si>
   <si>
     <t>THC</t>
@@ -185,7 +186,7 @@
     <t>['AAPL'</t>
   </si>
   <si>
-    <t> 'FDX']</t>
+    <t>'FDX']</t>
   </si>
   <si>
     <t>2013-06-05</t>
@@ -278,7 +279,7 @@
     <t>['QCOM'</t>
   </si>
   <si>
-    <t> 'PCLN']</t>
+    <t>'PCLN']</t>
   </si>
   <si>
     <t>LONG-SPY-NULL</t>
@@ -308,13 +309,13 @@
     <t>['AXP'</t>
   </si>
   <si>
-    <t> 'VLO'</t>
-  </si>
-  <si>
-    <t> 'AAPL'</t>
-  </si>
-  <si>
-    <t> 'FFIV']</t>
+    <t>'VLO'</t>
+  </si>
+  <si>
+    <t>'AAPL'</t>
+  </si>
+  <si>
+    <t>'FFIV']</t>
   </si>
   <si>
     <t>2010-01-22</t>
@@ -329,7 +330,7 @@
     <t>2010-06-23</t>
   </si>
   <si>
-    <t> 'RIG']</t>
+    <t>'RIG']</t>
   </si>
   <si>
     <t>2014-03-24</t>
@@ -341,7 +342,7 @@
     <t>['CMG'</t>
   </si>
   <si>
-    <t> 'EQT']</t>
+    <t>'EQT']</t>
   </si>
   <si>
     <t>2008-08-07</t>
@@ -395,7 +396,7 @@
     <t>2014-03-31</t>
   </si>
   <si>
-    <t> 'EQT'</t>
+    <t>'EQT'</t>
   </si>
   <si>
     <t>2012-09-26</t>
@@ -413,7 +414,7 @@
     <t>2013-06-18</t>
   </si>
   <si>
-    <t> 'AAPL']</t>
+    <t>'AAPL']</t>
   </si>
   <si>
     <t>2013-05-16</t>
@@ -452,10 +453,10 @@
     <t>2007-11-12</t>
   </si>
   <si>
-    <t> 'MMM'</t>
-  </si>
-  <si>
-    <t> 'FTI']</t>
+    <t>'MMM'</t>
+  </si>
+  <si>
+    <t>'FTI']</t>
   </si>
   <si>
     <t>QCOM</t>
@@ -590,10 +591,10 @@
     <t>['MMM'</t>
   </si>
   <si>
-    <t> 'FTI'</t>
-  </si>
-  <si>
-    <t> 'BEN']</t>
+    <t>'FTI'</t>
+  </si>
+  <si>
+    <t>'BEN']</t>
   </si>
   <si>
     <t>DISCA</t>
@@ -635,7 +636,7 @@
     <t>2011-09-02</t>
   </si>
   <si>
-    <t> 'QCOM']</t>
+    <t>'QCOM']</t>
   </si>
   <si>
     <t>HUM</t>
@@ -647,7 +648,7 @@
     <t>2013-04-05</t>
   </si>
   <si>
-    <t> 'THC']</t>
+    <t>'THC']</t>
   </si>
   <si>
     <t>2010-08-12</t>
@@ -725,7 +726,7 @@
     <t>['GD'</t>
   </si>
   <si>
-    <t> 'BRCM']</t>
+    <t>'BRCM']</t>
   </si>
   <si>
     <t>2014-11-11</t>
@@ -797,7 +798,7 @@
     <t>2010-06-21</t>
   </si>
   <si>
-    <t> 'PCLN'</t>
+    <t>'PCLN'</t>
   </si>
   <si>
     <t>2013-03-18</t>
@@ -842,7 +843,7 @@
     <t>2011-02-09</t>
   </si>
   <si>
-    <t> 'BWA']</t>
+    <t>'BWA']</t>
   </si>
   <si>
     <t>2008-05-22</t>
@@ -863,7 +864,7 @@
     <t>2011-05-10</t>
   </si>
   <si>
-    <t> 'BLK']</t>
+    <t>'BLK']</t>
   </si>
   <si>
     <t>2010-06-17</t>
@@ -893,7 +894,7 @@
     <t>2011-08-31</t>
   </si>
   <si>
-    <t> 'QCOM'</t>
+    <t>'QCOM'</t>
   </si>
   <si>
     <t>2014-01-03</t>
@@ -905,7 +906,7 @@
     <t>['EOG'</t>
   </si>
   <si>
-    <t> 'CPB']</t>
+    <t>'CPB']</t>
   </si>
   <si>
     <t>2013-01-02</t>
@@ -1007,7 +1008,7 @@
     <t>['TAP'</t>
   </si>
   <si>
-    <t> 'HUM']</t>
+    <t>'HUM']</t>
   </si>
   <si>
     <t>2014-10-14</t>
@@ -1034,7 +1035,7 @@
     <t>['AGN'</t>
   </si>
   <si>
-    <t> 'MSI']</t>
+    <t>'MSI']</t>
   </si>
   <si>
     <t>2011-10-05</t>
@@ -1121,7 +1122,7 @@
     <t>2009-01-06</t>
   </si>
   <si>
-    <t> 'FSLR']</t>
+    <t>'FSLR']</t>
   </si>
   <si>
     <t>2014-04-07</t>
@@ -1217,7 +1218,7 @@
     <t>2014-10-03</t>
   </si>
   <si>
-    <t> 'JNJ']</t>
+    <t>'JNJ']</t>
   </si>
   <si>
     <t>2014-04-03</t>
@@ -1226,10 +1227,10 @@
     <t>2013-05-01</t>
   </si>
   <si>
-    <t> 'GD'</t>
-  </si>
-  <si>
-    <t> 'BRCM'</t>
+    <t>'GD'</t>
+  </si>
+  <si>
+    <t>'BRCM'</t>
   </si>
   <si>
     <t>2014-12-09</t>
@@ -1349,7 +1350,7 @@
     <t>2011-01-06</t>
   </si>
   <si>
-    <t> 'CMG']</t>
+    <t>'CMG']</t>
   </si>
   <si>
     <t>CPB</t>
@@ -1389,6 +1390,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1476,7 +1478,7 @@
   </sheetPr>
   <dimension ref="A1:Q185"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L186" activeCellId="0" sqref="L186"/>
     </sheetView>
   </sheetViews>
@@ -1492,6 +1494,7 @@
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.2704081632653"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4591836734694"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.48469387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.6734693877551"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.4642857142857"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.1581632653061"/>
     <col collapsed="false" hidden="false" max="17" min="15" style="0" width="7.95408163265306"/>
@@ -9787,4 +9790,30 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>